--- a/xls/success-blocks_world-tfddownward-0.75.xlsx
+++ b/xls/success-blocks_world-tfddownward-0.75.xlsx
@@ -891,13 +891,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1415,13 +1421,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1562,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1673,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1745,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1757,10 +1769,10 @@
         <v>1</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1856,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1865,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1939,13 +1951,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2089,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -2146,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -2182,16 +2200,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -2203,13 +2221,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f>SUM(C7:L7)</f>
@@ -2242,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -2386,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -2463,13 +2481,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2613,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -2670,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2706,16 +2730,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2727,13 +2751,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <f>SUM(C7:L7)</f>
@@ -2766,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -2910,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2987,13 +3011,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3134,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -3245,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -3317,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -3329,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -3428,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -3437,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -3511,13 +3541,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4035,13 +4071,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4559,13 +4601,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5083,13 +5131,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5607,13 +5661,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -6131,13 +6191,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -6655,13 +6721,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -7179,13 +7251,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -7703,13 +7781,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
